--- a/public/templates/quotation-template-ezy.xlsx
+++ b/public/templates/quotation-template-ezy.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThanapongChun\Desktop\Work\ezyaccount_nextjs\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FD3A11-A2C0-49B3-A655-2576F29DB282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F7A1B8-A3AD-4F7B-8CBC-5E41E2061C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUOTE" sheetId="13" r:id="rId1"/>
-    <sheet name="Help" sheetId="22" r:id="rId2"/>
-    <sheet name="©" sheetId="12" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="valuevx">42.314159</definedName>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>[Company Name]</t>
   </si>
@@ -52,69 +50,15 @@
     <t>[Street Address]</t>
   </si>
   <si>
-    <t>By Vertex42.com</t>
-  </si>
-  <si>
-    <t>Do not submit copies or modifications of this template to any website or online template gallery.</t>
-  </si>
-  <si>
-    <t>Please review the following license agreement to learn how you may or may not use this template. Thank you.</t>
-  </si>
-  <si>
     <t>Phone: (000) 000-0000</t>
   </si>
   <si>
-    <t>HELP</t>
-  </si>
-  <si>
-    <t>Additional Help</t>
-  </si>
-  <si>
     <t>Service Fee</t>
   </si>
   <si>
     <t>Labor: 5 hours at $75/hr</t>
   </si>
   <si>
-    <t>© 2017 Vertex42 LLC</t>
-  </si>
-  <si>
-    <t>Quotation Template</t>
-  </si>
-  <si>
-    <t>https://www.vertex42.com/ExcelTemplates/quote-template.html</t>
-  </si>
-  <si>
-    <t>This spreadsheet, including all worksheets and associated content is a copyrighted work under the United States and other copyright laws.</t>
-  </si>
-  <si>
-    <t>Do not delete this worksheet.</t>
-  </si>
-  <si>
-    <t>https://www.vertex42.com/licensing/EULA_privateuse.html</t>
-  </si>
-  <si>
-    <t>Getting Started</t>
-  </si>
-  <si>
-    <t>Customize the template with your company name, address, and other contact information. Then, save a backup of the file to use as a template for future quotes.</t>
-  </si>
-  <si>
-    <t>For repeat customers, update the customer info section and customer ID and save a backup of the quote to use as a template for future quotes for that specific customer. You may want to name the file something like "Quote Template - Customer Name."</t>
-  </si>
-  <si>
-    <t>Valid Until</t>
-  </si>
-  <si>
-    <t>This field is set up to be 30 days after the value in the Date field, but you can manually enter a date of your choice.</t>
-  </si>
-  <si>
-    <t>Sending a Quote to a Customer</t>
-  </si>
-  <si>
-    <t>One of the best ways to send a quote, besides printing a paper copy and mailing it, is to email the quote as a PDF attachment. You can create a PDF with Excel by exporting to PDF or going to Save As and choosing PDF.</t>
-  </si>
-  <si>
     <t>Fax: (000) 000-0000</t>
   </si>
   <si>
@@ -125,9 +69,6 @@
   </si>
   <si>
     <t>If you have any questions, please contact [Name, Phone, email@address.com]</t>
-  </si>
-  <si>
-    <t>The link at the top of this worksheet will take you to the web page on vertex42.com that talks about this template and quotes in general.</t>
   </si>
   <si>
     <t>ลูกค้า</t>
@@ -201,7 +142,7 @@
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -257,11 +198,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
@@ -346,32 +282,8 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="4"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -408,23 +320,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="4" tint="-0.249977111117893"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -457,19 +352,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="4"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <i/>
@@ -612,7 +494,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -729,74 +611,11 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0"/>
-      </left>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1008,51 +827,32 @@
     <xf numFmtId="0" fontId="7" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1062,263 +862,212 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="20" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="10" xfId="35" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="35" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="37" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="47" fillId="20" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1454,6 +1203,56 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="รูปภาพ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{787AE31D-A5B9-6CDB-444F-2EB28E640F0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4159250" y="0"/>
+          <a:ext cx="2492375" cy="2492375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -1549,7 +1348,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1790,116 +1589,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>4152900</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>50006</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>371475</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4838700" y="50006"/>
-          <a:ext cx="1428750" cy="321469"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3590925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>5114925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>371476</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7A0C674-5BBA-483B-BC39-995D0A07EA48}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3810000" y="28576"/>
-          <a:ext cx="1524000" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2195,8 +1884,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2213,540 +1902,543 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.2">
-      <c r="A1" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="G1" s="16"/>
+      <c r="A1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>43</v>
+      <c r="A2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="J3" s="28"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="18"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="9"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="9"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="44">
+        <v>3660</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="18"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="72">
-        <v>3660</v>
-      </c>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="18"/>
-      <c r="J6" s="15"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="9"/>
+      <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="9"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="9"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="9"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="9"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="16"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="16"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="18"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="18"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="18"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="65" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="18"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="B14" s="49"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="57"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="29">
         <v>1</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="44"/>
-      <c r="J10" s="14"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="44"/>
-      <c r="J11" s="14"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="87" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="91" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="91" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="92" t="s">
-        <v>32</v>
-      </c>
-      <c r="I14" s="93"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="57">
-        <v>1</v>
-      </c>
-      <c r="F15" s="61"/>
-      <c r="G15" s="67">
+      <c r="F15" s="33"/>
+      <c r="G15" s="39">
         <v>200</v>
       </c>
-      <c r="H15" s="77">
+      <c r="H15" s="58">
         <f>IF(E15="",ROUND(1*G15,2),ROUND(E15*G15,2))</f>
         <v>200</v>
       </c>
-      <c r="I15" s="78"/>
+      <c r="I15" s="59"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="58">
+      <c r="A16" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="68">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="30">
+        <v>5</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="40">
         <v>75</v>
       </c>
-      <c r="H16" s="79">
+      <c r="H16" s="60">
         <f>IF(E16="",ROUND(1*G16,2),ROUND(E16*G16,2))</f>
         <v>375</v>
       </c>
-      <c r="I16" s="80"/>
-      <c r="J16" s="29"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="48"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="15"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="48"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="15"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="48"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="14"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="5"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="48"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="14"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="5"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="48"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="68"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="15"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="6"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="48"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="14"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="68"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="14"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="48"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="15"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="48"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="15"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="6"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="48"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="15"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="6"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="48"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="14"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="48"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="15"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="48"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="79"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="14"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="49"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="63"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="82"/>
-      <c r="J30" s="14"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J31" s="14"/>
+      <c r="J31" s="5"/>
     </row>
     <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="50" t="str">
+      <c r="A32" s="22" t="str">
         <f>"("&amp;BAHTTEXT(H38)&amp;")"</f>
         <v>(ห้าร้อยสามสิบห้าบาทยี่สิบเจ็ดสตางค์)</v>
       </c>
-      <c r="F32" s="52"/>
-      <c r="G32" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="H32" s="83">
+      <c r="F32" s="24"/>
+      <c r="G32" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="64">
         <f>SUM(H15:H30)</f>
         <v>575</v>
       </c>
-      <c r="I32" s="83"/>
-      <c r="J32" s="14"/>
+      <c r="I32" s="64"/>
+      <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="F33" s="52"/>
-      <c r="G33" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" s="83">
+      <c r="F33" s="24"/>
+      <c r="G33" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="64">
         <f>SUM(F15:F30)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="83"/>
-      <c r="J33" s="14"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="G34" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="H34" s="83">
+      <c r="G34" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="64">
         <f>H32-H33</f>
         <v>575</v>
       </c>
-      <c r="I34" s="83"/>
-      <c r="J34" s="14"/>
-    </row>
-    <row r="35" spans="1:13" s="13" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="51" t="s">
-        <v>41</v>
+      <c r="I34" s="64"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" s="4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="F35"/>
-      <c r="G35" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="H35" s="83">
+      <c r="G35" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="64">
         <f>H34*0.07</f>
         <v>40.250000000000007</v>
       </c>
-      <c r="I35" s="83"/>
-      <c r="J35" s="15"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="6"/>
       <c r="M35"/>
     </row>
     <row r="36" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G36" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="H36" s="84">
+      <c r="G36" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="65">
         <f>H34+H35</f>
         <v>615.25</v>
       </c>
-      <c r="I36" s="84"/>
-      <c r="J36" s="15"/>
+      <c r="I36" s="65"/>
+      <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G37" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="H37" s="83">
+      <c r="G37" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="64">
         <f>H36*0.13</f>
         <v>79.982500000000002</v>
       </c>
-      <c r="I37" s="83"/>
+      <c r="I37" s="64"/>
     </row>
     <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="19"/>
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="H38" s="95">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="66">
         <f>H36-H37</f>
         <v>535.26750000000004</v>
       </c>
-      <c r="I38" s="95"/>
+      <c r="I38" s="66"/>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="85"/>
-      <c r="B39" s="85"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="85"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
-      <c r="J39" s="15"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
+      <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="85"/>
-      <c r="B40" s="85"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="85"/>
-      <c r="H40" s="85"/>
-      <c r="I40" s="85"/>
-      <c r="J40" s="15"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="6"/>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="85"/>
-      <c r="B41" s="85"/>
-      <c r="C41" s="85"/>
-      <c r="D41" s="85"/>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="85"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="42"/>
+      <c r="A42" s="15"/>
     </row>
     <row r="43" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="73"/>
-      <c r="B43" s="86" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="86"/>
-      <c r="D43" s="74" t="s">
-        <v>48</v>
-      </c>
-      <c r="E43" s="86" t="s">
-        <v>49</v>
-      </c>
-      <c r="F43" s="86"/>
-      <c r="G43" s="86"/>
-      <c r="H43" s="86" t="s">
-        <v>48</v>
-      </c>
-      <c r="I43" s="86"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="54"/>
+      <c r="D43" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="54"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="75"/>
+      <c r="A44" s="47"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="B46" s="76"/>
-      <c r="C46" s="76"/>
-      <c r="D46" s="76"/>
-      <c r="E46" s="76"/>
-      <c r="F46" s="76"/>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="J46" s="15"/>
+      <c r="A46" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="J46" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A39:I41"/>
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="B43:C43"/>
@@ -2763,477 +2455,10 @@
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A39:I41"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D39"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="56.375" customWidth="1"/>
-    <col min="3" max="3" width="4.625" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="25"/>
-      <c r="D3" s="25"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
-    </row>
-    <row r="5" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="9"/>
-      <c r="B5" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="37"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="37"/>
-    </row>
-    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="37"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="37"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="37"/>
-    </row>
-    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="37"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="37"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="37"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="35"/>
-    </row>
-    <row r="14" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="37"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="37"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="35"/>
-    </row>
-    <row r="17" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="37"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C28"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="67.5" style="9" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="4"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-</worksheet>
 </file>
--- a/public/templates/quotation-template-ezy.xlsx
+++ b/public/templates/quotation-template-ezy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThanapongChun\Desktop\Work\ezyaccount_nextjs\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MYWORK\ezyaccount_nextjs\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F7A1B8-A3AD-4F7B-8CBC-5E41E2061C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F08083-2684-4893-BC73-BCB05A7909B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUOTE" sheetId="13" r:id="rId1"/>
@@ -139,8 +139,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="38" x14ac:knownFonts="1">
     <font>
@@ -288,7 +288,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Cordia New"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -300,21 +300,21 @@
     </font>
     <font>
       <sz val="16"/>
-      <name val="Arial"/>
+      <name val="Cordia New"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Cordia New"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Arial"/>
+      <name val="Cordia New"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -326,7 +326,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Arial"/>
+      <name val="Cordia New"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -334,7 +334,7 @@
       <b/>
       <sz val="28"/>
       <color theme="4"/>
-      <name val="Arial"/>
+      <name val="Cordia New"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -349,7 +349,7 @@
       <u/>
       <sz val="10"/>
       <color indexed="12"/>
-      <name val="Arial"/>
+      <name val="Cordia New"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -362,14 +362,14 @@
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.499984740745262"/>
-      <name val="Arial"/>
+      <name val="Cordia New"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
+      <name val="Cordia New"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -377,7 +377,7 @@
       <b/>
       <sz val="9"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Cordia New"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -385,7 +385,7 @@
       <b/>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="Arial"/>
+      <name val="Cordia New"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -826,7 +826,7 @@
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -845,7 +845,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -958,19 +958,19 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="44" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -980,22 +980,22 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1027,95 +1027,95 @@
     <xf numFmtId="0" fontId="37" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="20" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="37" fillId="20" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="45">
-    <cellStyle name="20% - ส่วนที่ถูกเน้น1" xfId="1" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - ส่วนที่ถูกเน้น2" xfId="2" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - ส่วนที่ถูกเน้น3" xfId="3" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - ส่วนที่ถูกเน้น4" xfId="4" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - ส่วนที่ถูกเน้น5" xfId="5" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - ส่วนที่ถูกเน้น6" xfId="6" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - ส่วนที่ถูกเน้น1" xfId="7" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - ส่วนที่ถูกเน้น2" xfId="8" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - ส่วนที่ถูกเน้น3" xfId="9" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - ส่วนที่ถูกเน้น4" xfId="10" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - ส่วนที่ถูกเน้น5" xfId="11" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - ส่วนที่ถูกเน้น6" xfId="12" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - ส่วนที่ถูกเน้น1" xfId="13" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - ส่วนที่ถูกเน้น2" xfId="14" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - ส่วนที่ถูกเน้น3" xfId="15" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - ส่วนที่ถูกเน้น4" xfId="16" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - ส่วนที่ถูกเน้น5" xfId="17" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - ส่วนที่ถูกเน้น6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="4" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="6" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="7" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="8" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="9" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="10" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="11" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="12" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="13" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="14" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="15" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="16" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="17" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="18" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="20" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="21" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="22" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="23" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="24" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="28" builtinId="3"/>
+    <cellStyle name="Currency" xfId="44" builtinId="4"/>
+    <cellStyle name="Explanatory Text" xfId="29" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="30" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="31" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="32" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="34" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="การคำนวณ" xfId="26" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="ข้อความเตือน" xfId="43" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="ข้อความอธิบาย" xfId="29" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="จุลภาค" xfId="28" builtinId="3"/>
-    <cellStyle name="ชื่อเรื่อง" xfId="41" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="เซลล์ตรวจสอบ" xfId="27" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="เซลล์ที่มีลิงก์" xfId="37" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="ดี" xfId="30" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="ปกติ" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="ป้อนค่า" xfId="36" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="ปานกลาง" xfId="38" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="ผลรวม" xfId="42" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="แย่" xfId="25" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="สกุลเงิน" xfId="44" builtinId="4"/>
-    <cellStyle name="ส่วนที่ถูกเน้น1" xfId="19" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="ส่วนที่ถูกเน้น2" xfId="20" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="ส่วนที่ถูกเน้น3" xfId="21" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="ส่วนที่ถูกเน้น4" xfId="22" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="ส่วนที่ถูกเน้น5" xfId="23" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="ส่วนที่ถูกเน้น6" xfId="24" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="แสดงผล" xfId="40" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="หมายเหตุ" xfId="39" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="หัวเรื่อง 1" xfId="31" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="หัวเรื่อง 2" xfId="32" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="หัวเรื่อง 3" xfId="33" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="หัวเรื่อง 4" xfId="34" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="36" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="37" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="38" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="39" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="40" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="41" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="42" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="43" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1205,23 +1205,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1392621</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>663465</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>45983</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="รูปภาพ 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{787AE31D-A5B9-6CDB-444F-2EB28E640F0C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9958C8AE-3AA3-65D6-9BC8-21083B81D206}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1230,7 +1230,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1243,82 +1243,14 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4159250" y="0"/>
-          <a:ext cx="2492375" cy="2492375"/>
+          <a:off x="3304190" y="0"/>
+          <a:ext cx="3350172" cy="2850931"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>666747</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Right Triangle 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E039512-90BE-070A-3DF6-B4EAECAEAADC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3409950" y="0"/>
-          <a:ext cx="3248022" cy="2543175"/>
-        </a:xfrm>
-        <a:prstGeom prst="rtTriangle">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="C6D9F1">
-            <a:alpha val="40000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="th-TH" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
@@ -1884,8 +1816,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1901,13 +1833,13 @@
     <col min="10" max="10" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="39.75" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>27</v>
       </c>
       <c r="G1" s="7"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>23</v>
       </c>
@@ -1916,7 +1848,7 @@
       </c>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="24" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -1929,7 +1861,7 @@
       <c r="H3" s="10"/>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1939,7 +1871,7 @@
       <c r="E4" s="9"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>3</v>
       </c>
@@ -1956,7 +1888,7 @@
       </c>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1966,7 +1898,7 @@
       <c r="E6" s="9"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
@@ -2002,7 +1934,7 @@
       <c r="H10" s="16"/>
       <c r="J10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>2</v>
       </c>
@@ -2013,7 +1945,7 @@
       <c r="H11" s="16"/>
       <c r="J11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>8</v>
       </c>
@@ -2021,7 +1953,7 @@
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -2042,12 +1974,12 @@
       <c r="G14" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="56" t="s">
+      <c r="H14" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="57"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I14" s="56"/>
+    </row>
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>4</v>
       </c>
@@ -2061,11 +1993,11 @@
       <c r="G15" s="39">
         <v>200</v>
       </c>
-      <c r="H15" s="58">
+      <c r="H15" s="57">
         <f>IF(E15="",ROUND(1*G15,2),ROUND(E15*G15,2))</f>
         <v>200</v>
       </c>
-      <c r="I15" s="59"/>
+      <c r="I15" s="58"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
@@ -2081,11 +2013,11 @@
       <c r="G16" s="40">
         <v>75</v>
       </c>
-      <c r="H16" s="60">
+      <c r="H16" s="59">
         <f>IF(E16="",ROUND(1*G16,2),ROUND(E16*G16,2))</f>
         <v>375</v>
       </c>
-      <c r="I16" s="61"/>
+      <c r="I16" s="60"/>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2096,8 +2028,8 @@
       <c r="E17" s="30"/>
       <c r="F17" s="36"/>
       <c r="G17" s="40"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="60"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2148,7 +2080,7 @@
       <c r="I21" s="43"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="20"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2172,7 +2104,7 @@
       <c r="I23" s="43"/>
       <c r="J23" s="5"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="20"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2184,7 +2116,7 @@
       <c r="I24" s="43"/>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="20"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2196,7 +2128,7 @@
       <c r="I25" s="43"/>
       <c r="J25" s="6"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="20"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2208,7 +2140,7 @@
       <c r="I26" s="43"/>
       <c r="J26" s="6"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="20"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2220,7 +2152,7 @@
       <c r="I27" s="43"/>
       <c r="J27" s="5"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="20"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2228,11 +2160,11 @@
       <c r="E28" s="31"/>
       <c r="F28" s="34"/>
       <c r="G28" s="40"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="61"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="60"/>
       <c r="J28" s="6"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="20"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -2240,11 +2172,11 @@
       <c r="E29" s="31"/>
       <c r="F29" s="34"/>
       <c r="G29" s="40"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="61"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="60"/>
       <c r="J29" s="5"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="21"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -2252,14 +2184,14 @@
       <c r="E30" s="32"/>
       <c r="F30" s="35"/>
       <c r="G30" s="41"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="63"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="62"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J31" s="5"/>
     </row>
-    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A32" s="22" t="str">
         <f>"("&amp;BAHTTEXT(H38)&amp;")"</f>
         <v>(ห้าร้อยสามสิบห้าบาทยี่สิบเจ็ดสตางค์)</v>
@@ -2268,34 +2200,34 @@
       <c r="G32" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="64">
+      <c r="H32" s="63">
         <f>SUM(H15:H30)</f>
         <v>575</v>
       </c>
-      <c r="I32" s="64"/>
+      <c r="I32" s="63"/>
       <c r="J32" s="5"/>
     </row>
-    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="F33" s="24"/>
       <c r="G33" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="64">
+      <c r="H33" s="63">
         <f>SUM(F15:F30)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="64"/>
+      <c r="I33" s="63"/>
       <c r="J33" s="5"/>
     </row>
-    <row r="34" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="G34" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="64">
+      <c r="H34" s="63">
         <f>H32-H33</f>
         <v>575</v>
       </c>
-      <c r="I34" s="64"/>
+      <c r="I34" s="63"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:13" s="4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2306,11 +2238,11 @@
       <c r="G35" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="64">
+      <c r="H35" s="63">
         <f>H34*0.07</f>
         <v>40.250000000000007</v>
       </c>
-      <c r="I35" s="64"/>
+      <c r="I35" s="63"/>
       <c r="J35" s="6"/>
       <c r="M35"/>
     </row>
@@ -2318,24 +2250,24 @@
       <c r="G36" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="65">
+      <c r="H36" s="64">
         <f>H34+H35</f>
         <v>615.25</v>
       </c>
-      <c r="I36" s="65"/>
+      <c r="I36" s="64"/>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G37" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="64">
+      <c r="H37" s="63">
         <f>H36*0.13</f>
         <v>79.982500000000002</v>
       </c>
-      <c r="I37" s="64"/>
-    </row>
-    <row r="38" spans="1:13" ht="18" x14ac:dyDescent="0.2">
+      <c r="I37" s="63"/>
+    </row>
+    <row r="38" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="10"/>
@@ -2345,73 +2277,73 @@
       <c r="G38" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="66">
+      <c r="H38" s="65">
         <f>H36-H37</f>
         <v>535.26750000000004</v>
       </c>
-      <c r="I38" s="66"/>
+      <c r="I38" s="65"/>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="67"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
+      <c r="A39" s="66"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
       <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="67"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
+      <c r="A40" s="66"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
       <c r="J40" s="6"/>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="67"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="66"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+    </row>
+    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="15"/>
     </row>
-    <row r="43" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="45"/>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="54"/>
+      <c r="C43" s="67"/>
       <c r="D43" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="54" t="s">
+      <c r="E43" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54" t="s">
+      <c r="F43" s="67"/>
+      <c r="G43" s="67"/>
+      <c r="H43" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="I43" s="54"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I43" s="67"/>
+    </row>
+    <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="47"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -2421,24 +2353,21 @@
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="55" t="s">
+    <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
       <c r="J46" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A39:I41"/>
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="B43:C43"/>
@@ -2455,6 +2384,9 @@
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A39:I41"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/templates/quotation-template-ezy.xlsx
+++ b/public/templates/quotation-template-ezy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MYWORK\ezyaccount_nextjs\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F08083-2684-4893-BC73-BCB05A7909B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B74D0C7-C857-4193-9F32-D10FA3C8DF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,25 +21,12 @@
     <definedName name="vertex42_id" hidden="1">"quotation-template.xlsx"</definedName>
     <definedName name="vertex42_title" hidden="1">"Quotation Template"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>[Company Name]</t>
   </si>
@@ -119,9 +106,6 @@
     <t>สินค้า / บริการ</t>
   </si>
   <si>
-    <t>เลขอ้างอิง #</t>
-  </si>
-  <si>
     <t>ใบเสนอราคา</t>
   </si>
   <si>
@@ -132,6 +116,12 @@
   </si>
   <si>
     <t>ผู้สั่งซื้อสินค้า</t>
+  </si>
+  <si>
+    <t xml:space="preserve">เลขอ้างอิง </t>
+  </si>
+  <si>
+    <t>#3660</t>
   </si>
 </sst>
 </file>
@@ -1027,6 +1017,9 @@
     <xf numFmtId="0" fontId="37" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1065,9 +1058,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1206,15 +1196,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1392621</xdr:colOff>
+      <xdr:colOff>1392620</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>19707</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>663465</xdr:colOff>
+      <xdr:colOff>663464</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>45983</xdr:rowOff>
+      <xdr:rowOff>65690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1243,7 +1233,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3304190" y="0"/>
+          <a:off x="3304189" y="19707"/>
           <a:ext cx="3350172" cy="2850931"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1816,8 +1806,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1835,7 +1825,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="39.75" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G1" s="7"/>
     </row>
@@ -1881,10 +1871,10 @@
       <c r="E5" s="9"/>
       <c r="G5" s="38"/>
       <c r="H5" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="44">
-        <v>3660</v>
+        <v>30</v>
+      </c>
+      <c r="I5" s="44" t="s">
+        <v>31</v>
       </c>
       <c r="J5" s="6"/>
     </row>
@@ -1974,10 +1964,10 @@
       <c r="G14" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="55" t="s">
+      <c r="H14" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="56"/>
+      <c r="I14" s="57"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
@@ -1993,11 +1983,11 @@
       <c r="G15" s="39">
         <v>200</v>
       </c>
-      <c r="H15" s="57">
+      <c r="H15" s="58">
         <f>IF(E15="",ROUND(1*G15,2),ROUND(E15*G15,2))</f>
         <v>200</v>
       </c>
-      <c r="I15" s="58"/>
+      <c r="I15" s="59"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
@@ -2013,11 +2003,11 @@
       <c r="G16" s="40">
         <v>75</v>
       </c>
-      <c r="H16" s="59">
+      <c r="H16" s="60">
         <f>IF(E16="",ROUND(1*G16,2),ROUND(E16*G16,2))</f>
         <v>375</v>
       </c>
-      <c r="I16" s="60"/>
+      <c r="I16" s="61"/>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2028,8 +2018,8 @@
       <c r="E17" s="30"/>
       <c r="F17" s="36"/>
       <c r="G17" s="40"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2160,8 +2150,8 @@
       <c r="E28" s="31"/>
       <c r="F28" s="34"/>
       <c r="G28" s="40"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="61"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -2172,8 +2162,8 @@
       <c r="E29" s="31"/>
       <c r="F29" s="34"/>
       <c r="G29" s="40"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="61"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -2184,8 +2174,8 @@
       <c r="E30" s="32"/>
       <c r="F30" s="35"/>
       <c r="G30" s="41"/>
-      <c r="H30" s="61"/>
-      <c r="I30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="63"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2200,11 +2190,11 @@
       <c r="G32" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="63">
+      <c r="H32" s="64">
         <f>SUM(H15:H30)</f>
         <v>575</v>
       </c>
-      <c r="I32" s="63"/>
+      <c r="I32" s="64"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
@@ -2212,22 +2202,22 @@
       <c r="G33" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="63">
+      <c r="H33" s="64">
         <f>SUM(F15:F30)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="63"/>
+      <c r="I33" s="64"/>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="G34" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="H34" s="63">
+      <c r="H34" s="64">
         <f>H32-H33</f>
         <v>575</v>
       </c>
-      <c r="I34" s="63"/>
+      <c r="I34" s="64"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:13" s="4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -2238,11 +2228,11 @@
       <c r="G35" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="H35" s="63">
+      <c r="H35" s="64">
         <f>H34*0.07</f>
         <v>40.250000000000007</v>
       </c>
-      <c r="I35" s="63"/>
+      <c r="I35" s="64"/>
       <c r="J35" s="6"/>
       <c r="M35"/>
     </row>
@@ -2250,22 +2240,22 @@
       <c r="G36" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="64">
+      <c r="H36" s="65">
         <f>H34+H35</f>
         <v>615.25</v>
       </c>
-      <c r="I36" s="64"/>
+      <c r="I36" s="65"/>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G37" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="63">
+      <c r="H37" s="64">
         <f>H36*0.13</f>
         <v>79.982500000000002</v>
       </c>
-      <c r="I37" s="63"/>
+      <c r="I37" s="64"/>
     </row>
     <row r="38" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
@@ -2277,68 +2267,68 @@
       <c r="G38" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="H38" s="65">
+      <c r="H38" s="66">
         <f>H36-H37</f>
         <v>535.26750000000004</v>
       </c>
-      <c r="I38" s="65"/>
+      <c r="I38" s="66"/>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="66"/>
-      <c r="B39" s="66"/>
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="66"/>
-      <c r="G39" s="66"/>
-      <c r="H39" s="66"/>
-      <c r="I39" s="66"/>
+      <c r="A39" s="67"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="67"/>
+      <c r="G39" s="67"/>
+      <c r="H39" s="67"/>
+      <c r="I39" s="67"/>
       <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="66"/>
-      <c r="B40" s="66"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
+      <c r="F40" s="67"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="67"/>
+      <c r="I40" s="67"/>
       <c r="J40" s="6"/>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="66"/>
-      <c r="B41" s="66"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
+      <c r="A41" s="67"/>
+      <c r="B41" s="67"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="67"/>
+      <c r="F41" s="67"/>
+      <c r="G41" s="67"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="67"/>
     </row>
     <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="15"/>
     </row>
     <row r="43" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="45"/>
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" s="54"/>
+      <c r="D43" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="67"/>
-      <c r="D43" s="46" t="s">
+      <c r="E43" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="I43" s="67"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="I43" s="54"/>
     </row>
     <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="47"/>
@@ -2354,20 +2344,23 @@
       <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="54" t="s">
+      <c r="A46" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
       <c r="J46" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A39:I41"/>
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="B43:C43"/>
@@ -2384,9 +2377,6 @@
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A39:I41"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/templates/quotation-template-ezy.xlsx
+++ b/public/templates/quotation-template-ezy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MYWORK\ezyaccount_nextjs\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B74D0C7-C857-4193-9F32-D10FA3C8DF34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B555A3DA-5D90-4DE7-8377-D034EACC126D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>[Company Name]</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>[Phone, E-mail]</t>
-  </si>
-  <si>
-    <t>If you have any questions, please contact [Name, Phone, email@address.com]</t>
   </si>
   <si>
     <t>ลูกค้า</t>
@@ -837,7 +834,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1017,12 +1014,18 @@
     <xf numFmtId="0" fontId="37" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="20" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1047,17 +1050,8 @@
     <xf numFmtId="43" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="37" fillId="20" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1804,10 +1798,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageBreakPreview" topLeftCell="A31" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1825,16 +1819,16 @@
   <sheetData>
     <row r="1" spans="1:10" ht="39.75" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="J2" s="1"/>
     </row>
@@ -1871,10 +1865,10 @@
       <c r="E5" s="9"/>
       <c r="G5" s="38"/>
       <c r="H5" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="44" t="s">
         <v>30</v>
-      </c>
-      <c r="I5" s="44" t="s">
-        <v>31</v>
       </c>
       <c r="J5" s="6"/>
     </row>
@@ -1906,7 +1900,7 @@
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -1950,24 +1944,24 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="48" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="49"/>
       <c r="C14" s="50"/>
       <c r="D14" s="51"/>
       <c r="E14" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="52" t="s">
+      <c r="H14" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="56" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="57"/>
+      <c r="I14" s="59"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
@@ -1983,11 +1977,11 @@
       <c r="G15" s="39">
         <v>200</v>
       </c>
-      <c r="H15" s="58">
+      <c r="H15" s="60">
         <f>IF(E15="",ROUND(1*G15,2),ROUND(E15*G15,2))</f>
         <v>200</v>
       </c>
-      <c r="I15" s="59"/>
+      <c r="I15" s="61"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
@@ -2003,11 +1997,11 @@
       <c r="G16" s="40">
         <v>75</v>
       </c>
-      <c r="H16" s="60">
+      <c r="H16" s="62">
         <f>IF(E16="",ROUND(1*G16,2),ROUND(E16*G16,2))</f>
         <v>375</v>
       </c>
-      <c r="I16" s="61"/>
+      <c r="I16" s="63"/>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2018,8 +2012,8 @@
       <c r="E17" s="30"/>
       <c r="F17" s="36"/>
       <c r="G17" s="40"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="63"/>
       <c r="J17" s="6"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2150,8 +2144,8 @@
       <c r="E28" s="31"/>
       <c r="F28" s="34"/>
       <c r="G28" s="40"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="61"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="63"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -2162,8 +2156,8 @@
       <c r="E29" s="31"/>
       <c r="F29" s="34"/>
       <c r="G29" s="40"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="61"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="63"/>
       <c r="J29" s="5"/>
     </row>
     <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
@@ -2174,8 +2168,8 @@
       <c r="E30" s="32"/>
       <c r="F30" s="35"/>
       <c r="G30" s="41"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="63"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="65"/>
       <c r="J30" s="5"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
@@ -2188,74 +2182,74 @@
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="H32" s="64">
+        <v>13</v>
+      </c>
+      <c r="H32" s="54">
         <f>SUM(H15:H30)</f>
         <v>575</v>
       </c>
-      <c r="I32" s="64"/>
+      <c r="I32" s="54"/>
       <c r="J32" s="5"/>
     </row>
     <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="F33" s="24"/>
       <c r="G33" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="64">
+        <v>15</v>
+      </c>
+      <c r="H33" s="54">
         <f>SUM(F15:F30)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="64"/>
+      <c r="I33" s="54"/>
       <c r="J33" s="5"/>
     </row>
     <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
       <c r="G34" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="64">
+        <v>16</v>
+      </c>
+      <c r="H34" s="54">
         <f>H32-H33</f>
         <v>575</v>
       </c>
-      <c r="I34" s="64"/>
+      <c r="I34" s="54"/>
       <c r="J34" s="5"/>
     </row>
     <row r="35" spans="1:13" s="4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F35"/>
       <c r="G35" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" s="64">
+        <v>17</v>
+      </c>
+      <c r="H35" s="54">
         <f>H34*0.07</f>
         <v>40.250000000000007</v>
       </c>
-      <c r="I35" s="64"/>
+      <c r="I35" s="54"/>
       <c r="J35" s="6"/>
       <c r="M35"/>
     </row>
     <row r="36" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G36" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="65">
+        <v>18</v>
+      </c>
+      <c r="H36" s="66">
         <f>H34+H35</f>
         <v>615.25</v>
       </c>
-      <c r="I36" s="65"/>
+      <c r="I36" s="66"/>
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G37" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="H37" s="64">
+        <v>19</v>
+      </c>
+      <c r="H37" s="54">
         <f>H36*0.13</f>
         <v>79.982500000000002</v>
       </c>
-      <c r="I37" s="64"/>
+      <c r="I37" s="54"/>
     </row>
     <row r="38" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
@@ -2265,70 +2259,70 @@
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
       <c r="G38" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="H38" s="66">
+        <v>20</v>
+      </c>
+      <c r="H38" s="55">
         <f>H36-H37</f>
         <v>535.26750000000004</v>
       </c>
-      <c r="I38" s="66"/>
+      <c r="I38" s="55"/>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="67"/>
-      <c r="B39" s="67"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="56"/>
       <c r="J39" s="6"/>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="67"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="67"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="67"/>
-      <c r="F40" s="67"/>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="67"/>
+      <c r="A40" s="56"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="56"/>
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="56"/>
       <c r="J40" s="6"/>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="67"/>
-      <c r="B41" s="67"/>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="56"/>
     </row>
     <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A42" s="15"/>
     </row>
     <row r="43" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="45"/>
-      <c r="B43" s="54" t="s">
+      <c r="B43" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C43" s="57"/>
+      <c r="D43" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C43" s="54"/>
-      <c r="D43" s="46" t="s">
+      <c r="E43" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="E43" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="I43" s="54"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" s="57"/>
     </row>
     <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A44" s="47"/>
@@ -2343,28 +2337,8 @@
       <c r="G45" s="10"/>
       <c r="H45" s="10"/>
     </row>
-    <row r="46" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="55" t="s">
-        <v>9</v>
-      </c>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="J46" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A39:I41"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A46:H46"/>
+  <mergeCells count="18">
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
@@ -2377,6 +2351,12 @@
     <mergeCell ref="H34:I34"/>
     <mergeCell ref="H35:I35"/>
     <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A39:I41"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/templates/quotation-template-ezy.xlsx
+++ b/public/templates/quotation-template-ezy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MYWORK\ezyaccount_nextjs\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B555A3DA-5D90-4DE7-8377-D034EACC126D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF3ABBD-EA6A-4615-9112-C03B48B6F087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -138,11 +138,6 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
     <font>
@@ -786,272 +781,272 @@
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="36" fillId="20" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="37" fillId="20" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="23" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1192,13 +1187,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1392620</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19707</xdr:rowOff>
+      <xdr:rowOff>6569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>663464</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>65690</xdr:rowOff>
+      <xdr:rowOff>52552</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1227,7 +1222,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3304189" y="19707"/>
+          <a:off x="3304189" y="6569"/>
           <a:ext cx="3350172" cy="2850931"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1800,8 +1795,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageBreakPreview" topLeftCell="A31" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageBreakPreview" topLeftCell="A22" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32:I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1818,538 +1813,570 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="7"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="7" t="s">
         <v>23</v>
       </c>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="24" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="3"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="J3" s="12"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="7"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="9"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38" t="s">
+      <c r="B5" s="49"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="7"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="6"/>
+      <c r="J5" s="5"/>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="9"/>
-      <c r="J6" s="6"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="7"/>
+      <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="7"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="9"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="7"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="9"/>
-      <c r="J9" s="5"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="7"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="16"/>
-      <c r="J10" s="5"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="13"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="16"/>
-      <c r="J11" s="5"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="13"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
     </row>
     <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="48" t="s">
+      <c r="A14" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="52" t="s">
+      <c r="F14" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="58" t="s">
+      <c r="H14" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="59"/>
+      <c r="I14" s="41"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="29">
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="17">
         <v>1</v>
       </c>
-      <c r="F15" s="33"/>
-      <c r="G15" s="39">
+      <c r="F15" s="21"/>
+      <c r="G15" s="27">
         <v>200</v>
       </c>
-      <c r="H15" s="60">
+      <c r="H15" s="62">
         <f>IF(E15="",ROUND(1*G15,2),ROUND(E15*G15,2))</f>
         <v>200</v>
       </c>
-      <c r="I15" s="61"/>
+      <c r="I15" s="63"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="30">
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="18">
         <v>5</v>
       </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="40">
+      <c r="F16" s="22"/>
+      <c r="G16" s="28">
         <v>75</v>
       </c>
-      <c r="H16" s="62">
+      <c r="H16" s="60">
         <f>IF(E16="",ROUND(1*G16,2),ROUND(E16*G16,2))</f>
         <v>375</v>
       </c>
-      <c r="I16" s="63"/>
-      <c r="J16" s="13"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="6"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="20"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="6"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="20"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="5"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="20"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="5"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="6"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="56"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="20"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="5"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="61"/>
+      <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="20"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="5"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="61"/>
+      <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="20"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="6"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="6"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="20"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="6"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="61"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="20"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="5"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="20"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="63"/>
-      <c r="J28" s="6"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="61"/>
+      <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="20"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="63"/>
-      <c r="J29" s="5"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="41"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="29"/>
       <c r="H30" s="64"/>
       <c r="I30" s="65"/>
-      <c r="J30" s="5"/>
+      <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J31" s="5"/>
+      <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="22" t="str">
+      <c r="A32" s="49" t="str">
         <f>"("&amp;BAHTTEXT(H38)&amp;")"</f>
         <v>(ห้าร้อยสามสิบห้าบาทยี่สิบเจ็ดสตางค์)</v>
       </c>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24" t="s">
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="54">
+      <c r="H32" s="42">
         <f>SUM(H15:H30)</f>
         <v>575</v>
       </c>
-      <c r="I32" s="54"/>
-      <c r="J32" s="5"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="F33" s="24"/>
-      <c r="G33" s="24" t="s">
+      <c r="F33" s="15"/>
+      <c r="G33" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H33" s="54">
+      <c r="H33" s="42">
         <f>SUM(F15:F30)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="54"/>
-      <c r="J33" s="5"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H34" s="54">
+      <c r="H34" s="42">
         <f>H32-H33</f>
         <v>575</v>
       </c>
-      <c r="I34" s="54"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="1:13" s="4" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
+      <c r="I34" s="42"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F35"/>
-      <c r="G35" s="24" t="s">
+      <c r="G35" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H35" s="54">
+      <c r="H35" s="42">
         <f>H34*0.07</f>
         <v>40.250000000000007</v>
       </c>
-      <c r="I35" s="54"/>
-      <c r="J35" s="6"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="5"/>
       <c r="M35"/>
     </row>
     <row r="36" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G36" s="25" t="s">
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="G36" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H36" s="66">
+      <c r="H36" s="43">
         <f>H34+H35</f>
         <v>615.25</v>
       </c>
-      <c r="I36" s="66"/>
-      <c r="J36" s="6"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G37" s="24" t="s">
+      <c r="A37" s="66"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="G37" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="54">
+      <c r="H37" s="42">
         <f>H36*0.13</f>
         <v>79.982500000000002</v>
       </c>
-      <c r="I37" s="54"/>
+      <c r="I37" s="42"/>
     </row>
     <row r="38" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="53" t="s">
+      <c r="A38" s="66"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="55">
+      <c r="H38" s="44">
         <f>H36-H37</f>
         <v>535.26750000000004</v>
       </c>
-      <c r="I38" s="55"/>
+      <c r="I38" s="44"/>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="6"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="45"/>
+      <c r="H39" s="45"/>
+      <c r="I39" s="45"/>
+      <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="56"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="56"/>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="6"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+      <c r="I40" s="45"/>
+      <c r="J40" s="5"/>
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="56"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="56"/>
-      <c r="D41" s="56"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="45"/>
+      <c r="D41" s="45"/>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="45"/>
+      <c r="H41" s="45"/>
+      <c r="I41" s="45"/>
     </row>
     <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="15"/>
+      <c r="A42" s="12"/>
     </row>
     <row r="43" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="45"/>
-      <c r="B43" s="57" t="s">
+      <c r="A43" s="31"/>
+      <c r="B43" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="46" t="s">
+      <c r="C43" s="46"/>
+      <c r="D43" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="57" t="s">
+      <c r="E43" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57" t="s">
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+      <c r="H43" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="I43" s="57"/>
+      <c r="I43" s="46"/>
     </row>
     <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="47"/>
+      <c r="A44" s="33"/>
     </row>
     <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
+  <mergeCells count="55">
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
     <mergeCell ref="H36:I36"/>
     <mergeCell ref="H37:I37"/>
     <mergeCell ref="H38:I38"/>
@@ -2357,6 +2384,28 @@
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A36:E38"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/templates/quotation-template-ezy.xlsx
+++ b/public/templates/quotation-template-ezy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MYWORK\ezyaccount_nextjs\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF3ABBD-EA6A-4615-9112-C03B48B6F087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AEC0A9-09C6-4ACB-B33A-CF756C239A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QUOTE" sheetId="13" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>[Company Name]</t>
   </si>
@@ -34,27 +34,12 @@
     <t>[Name]</t>
   </si>
   <si>
-    <t>[Street Address]</t>
-  </si>
-  <si>
-    <t>Phone: (000) 000-0000</t>
-  </si>
-  <si>
     <t>Service Fee</t>
   </si>
   <si>
     <t>Labor: 5 hours at $75/hr</t>
   </si>
   <si>
-    <t>Fax: (000) 000-0000</t>
-  </si>
-  <si>
-    <t>[E-mail Address]</t>
-  </si>
-  <si>
-    <t>[Phone, E-mail]</t>
-  </si>
-  <si>
     <t>ลูกค้า</t>
   </si>
   <si>
@@ -119,6 +104,18 @@
   </si>
   <si>
     <t>#3660</t>
+  </si>
+  <si>
+    <t>เลขที่เสียภาษี</t>
+  </si>
+  <si>
+    <t>โทร.</t>
+  </si>
+  <si>
+    <t>อีเมล์</t>
+  </si>
+  <si>
+    <t>ที่อยู่</t>
   </si>
 </sst>
 </file>
@@ -129,7 +126,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Arial"/>
@@ -314,14 +311,6 @@
     </font>
     <font>
       <b/>
-      <sz val="28"/>
-      <color theme="4"/>
-      <name val="Cordia New"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
       <sz val="9"/>
       <color theme="3"/>
       <name val="Arial"/>
@@ -370,6 +359,26 @@
       <name val="Cordia New"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cordia New"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Cordia New"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FF1C4792"/>
+      <name val="Cordia New"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="21">
@@ -815,7 +824,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -829,7 +838,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -852,13 +861,13 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -867,10 +876,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -909,7 +914,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -934,98 +939,83 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="35" fillId="20" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="36" fillId="20" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="20" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="43" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="22" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1033,19 +1023,46 @@
     <xf numFmtId="43" fontId="22" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1166,6 +1183,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FF1C4792"/>
       <color rgb="FFC6D9F1"/>
     </mruColors>
   </colors>
@@ -1182,118 +1200,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1392620</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>6569</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>663464</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>52552</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9958C8AE-3AA3-65D6-9BC8-21083B81D206}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3304189" y="6569"/>
-          <a:ext cx="3350172" cy="2850931"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>90303</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{819003F5-AE88-C4A0-C9CF-961DB1E02700}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5534025" y="200026"/>
-          <a:ext cx="933450" cy="890402"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1308,7 +1226,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="9153525"/>
+          <a:off x="695325" y="8953500"/>
           <a:ext cx="1114425" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1341,14 +1259,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1266825</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1363,7 +1281,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2066925" y="9153525"/>
+          <a:off x="2066925" y="8953500"/>
           <a:ext cx="1114425" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1396,14 +1314,14 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1418,7 +1336,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3752850" y="9144000"/>
+          <a:off x="3752850" y="8953500"/>
           <a:ext cx="1114425" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1451,14 +1369,14 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1473,7 +1391,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5448300" y="9153525"/>
+          <a:off x="5448300" y="8953500"/>
           <a:ext cx="1114425" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1500,6 +1418,106 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>488409</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>50844</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30C3D30-8A23-B200-0F2B-92A43FD07FBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4972049" y="180975"/>
+          <a:ext cx="1507585" cy="593769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD54280-A33E-DE92-4FCA-6326DACE70C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3810000" y="0"/>
+          <a:ext cx="2828925" cy="2562225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1795,8 +1813,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageBreakPreview" topLeftCell="A22" zoomScale="145" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32:I32"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1813,127 +1831,150 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="A1" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>23</v>
-      </c>
+    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="62"/>
       <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" ht="24" x14ac:dyDescent="0.35">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="58"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="8"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="8"/>
       <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
+      <c r="A4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="7"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
+      <c r="A5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="7"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="7"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="7"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C8" s="7"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="7"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="7"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="49" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
+      <c r="A10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
       <c r="G10" s="11"/>
       <c r="H10" s="13"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="49" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
+    <row r="11" spans="1:10" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
       <c r="G11" s="11"/>
       <c r="H11" s="13"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="7"/>
@@ -1941,403 +1982,397 @@
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="35"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="41"/>
+      <c r="A14" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="52"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="17">
+      <c r="A15" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="16">
         <v>1</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="27">
+      <c r="F15" s="20"/>
+      <c r="G15" s="26">
         <v>200</v>
       </c>
-      <c r="H15" s="62">
+      <c r="H15" s="53">
         <f>IF(E15="",ROUND(1*G15,2),ROUND(E15*G15,2))</f>
         <v>200</v>
       </c>
-      <c r="I15" s="63"/>
+      <c r="I15" s="54"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="17">
         <v>5</v>
       </c>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="18">
-        <v>5</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="28">
+      <c r="F16" s="21"/>
+      <c r="G16" s="27">
         <v>75</v>
       </c>
-      <c r="H16" s="60">
+      <c r="H16" s="55">
         <f>IF(E16="",ROUND(1*G16,2),ROUND(E16*G16,2))</f>
         <v>375</v>
       </c>
-      <c r="I16" s="61"/>
+      <c r="I16" s="56"/>
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="54"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="61"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="56"/>
       <c r="J17" s="5"/>
     </row>
     <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="54"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="61"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="56"/>
       <c r="J18" s="5"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="61"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="56"/>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="54"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="61"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="54"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="61"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="56"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="54"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="61"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="54"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="61"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="56"/>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="54"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="61"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
       <c r="J24" s="5"/>
     </row>
     <row r="25" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="54"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="61"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="56"/>
       <c r="J25" s="5"/>
     </row>
     <row r="26" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="61"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="56"/>
       <c r="J26" s="5"/>
     </row>
     <row r="27" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="54"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="61"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="56"/>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="61"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
       <c r="J28" s="5"/>
     </row>
     <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="61"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="56"/>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="57"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="64"/>
-      <c r="I30" s="65"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="50"/>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="49" t="str">
+      <c r="A32" s="37" t="str">
         <f>"("&amp;BAHTTEXT(H38)&amp;")"</f>
         <v>(ห้าร้อยสามสิบห้าบาทยี่สิบเจ็ดสตางค์)</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="42">
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="47">
         <f>SUM(H15:H30)</f>
         <v>575</v>
       </c>
-      <c r="I32" s="42"/>
+      <c r="I32" s="47"/>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="F33" s="15"/>
-      <c r="G33" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H33" s="42">
+      <c r="F33" s="14"/>
+      <c r="G33" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="47">
         <f>SUM(F15:F30)</f>
         <v>0</v>
       </c>
-      <c r="I33" s="42"/>
+      <c r="I33" s="47"/>
       <c r="J33" s="4"/>
     </row>
     <row r="34" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="G34" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="42">
+      <c r="G34" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="47">
         <f>H32-H33</f>
         <v>575</v>
       </c>
-      <c r="I34" s="42"/>
+      <c r="I34" s="47"/>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:13" s="3" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
-        <v>21</v>
-      </c>
+      <c r="A35" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
       <c r="F35"/>
-      <c r="G35" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="42">
+      <c r="G35" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="47">
         <f>H34*0.07</f>
         <v>40.250000000000007</v>
       </c>
-      <c r="I35" s="42"/>
+      <c r="I35" s="47"/>
       <c r="J35" s="5"/>
       <c r="M35"/>
     </row>
-    <row r="36" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="66"/>
-      <c r="B36" s="66"/>
-      <c r="C36" s="66"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="66"/>
-      <c r="G36" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="43">
+    <row r="36" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="G36" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H36" s="46">
         <f>H34+H35</f>
         <v>615.25</v>
       </c>
-      <c r="I36" s="43"/>
+      <c r="I36" s="46"/>
       <c r="J36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="66"/>
-      <c r="B37" s="66"/>
-      <c r="C37" s="66"/>
-      <c r="D37" s="66"/>
-      <c r="E37" s="66"/>
-      <c r="G37" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H37" s="42">
+      <c r="A37" s="60"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="G37" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="47">
         <f>H36*0.13</f>
         <v>79.982500000000002</v>
       </c>
-      <c r="I37" s="42"/>
+      <c r="I37" s="47"/>
     </row>
     <row r="38" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A38" s="66"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
       <c r="F38" s="8"/>
-      <c r="G38" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="44">
+      <c r="G38" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" s="48">
         <f>H36-H37</f>
         <v>535.26750000000004</v>
       </c>
-      <c r="I38" s="44"/>
+      <c r="I38" s="48"/>
     </row>
     <row r="39" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="45"/>
-      <c r="F39" s="45"/>
-      <c r="G39" s="45"/>
-      <c r="H39" s="45"/>
-      <c r="I39" s="45"/>
+      <c r="A39" s="61"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="61"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="61"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
       <c r="J39" s="5"/>
     </row>
     <row r="40" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="45"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
-      <c r="I40" s="45"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="61"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="61"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
       <c r="J40" s="5"/>
     </row>
-    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="45"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="45"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="45"/>
-      <c r="F41" s="45"/>
-      <c r="G41" s="45"/>
-      <c r="H41" s="45"/>
-      <c r="I41" s="45"/>
-    </row>
-    <row r="42" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="12"/>
-    </row>
-    <row r="43" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="31"/>
-      <c r="B43" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="I43" s="46"/>
-    </row>
+    <row r="41" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="12"/>
+    </row>
+    <row r="42" spans="1:13" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A42" s="30"/>
+      <c r="B42" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="68"/>
+      <c r="D42" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" s="68"/>
+    </row>
+    <row r="43" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="44" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="33"/>
+      <c r="A44" s="31"/>
     </row>
     <row r="45" spans="1:13" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A45" s="8"/>
@@ -2350,46 +2385,11 @@
       <c r="H45" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A39:I41"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A36:E38"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
+  <mergeCells count="50">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B5:D5"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
@@ -2406,6 +2406,36 @@
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
     <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
